--- a/Microcode/1802 Instruction Set Microcode 20221230.xlsx
+++ b/Microcode/1802 Instruction Set Microcode 20221230.xlsx
@@ -2270,8 +2270,8 @@
   <dimension ref="A1:AC259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E263" sqref="E263"/>
+      <pane ySplit="2" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z242" sqref="Z242:Z257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
